--- a/data/news_and_keyword/kosdaq/EDGC.xlsx
+++ b/data/news_and_keyword/kosdaq/EDGC.xlsx
@@ -3099,12 +3099,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>공모가 웃도는 시초가…주가 '맑음'</t>
+          <t>상장 첫날 급등</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['공모가', '웃도는']</t>
+          <t>['상장', '첫날', '급등']</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>상장 첫날 급등</t>
+          <t>공모가 웃도는 시초가…주가 '맑음'</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '급등']</t>
+          <t>['공모가', '웃도는']</t>
         </is>
       </c>
       <c r="D104" t="n">
